--- a/ArticleManage/main_working_folder/output_folders/Data 88 Study on the applicability/Data88_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 88 Study on the applicability/Data88_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="C6" sheetId="1" r:id="rId1"/>
-    <sheet name="CAC" sheetId="2" r:id="rId4"/>
-    <sheet name="PAC" sheetId="3" r:id="rId5"/>
-    <sheet name="PPAC" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 C6  0-1-0-1800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CAC  0-1-0-1800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 PAC  0-1-0-1800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 PPAC  0-1-0-1800 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C6</a:t>
+              <a:t>Izoterma adsorpcji probki C6 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C6'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 C6  0-1-0-1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C6'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 C6  0-1-0-1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC</a:t>
+              <a:t>Izoterma adsorpcji probki CAC z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CAC!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CAC  0-1-0-1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CAC!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CAC  0-1-0-1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC</a:t>
+              <a:t>Izoterma adsorpcji probki PAC z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PAC!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 PAC  0-1-0-1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PAC!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 PAC  0-1-0-1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PPAC</a:t>
+              <a:t>Izoterma adsorpcji probki PPAC z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PPAC!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 PPAC  0-1-0-1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PPAC!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 PPAC  0-1-0-1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 88 Study on the applicability/Data88_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 88 Study on the applicability/Data88_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,429 +4034,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0024</v>
+        <v>0.9875</v>
       </c>
       <c r="B3" s="0">
-        <v>90.1385</v>
+        <v>139.4933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.02</v>
+        <v>0.8506</v>
       </c>
       <c r="B4" s="0">
-        <v>109.8667</v>
+        <v>139.4933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0397</v>
+        <v>0.4736</v>
       </c>
       <c r="B5" s="0">
-        <v>117.8282</v>
+        <v>131.4456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0586</v>
+        <v>0.4224</v>
       </c>
       <c r="B6" s="0">
-        <v>118.9189</v>
+        <v>128.763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0776</v>
+        <v>0.3742</v>
       </c>
       <c r="B7" s="0">
-        <v>120.882</v>
+        <v>134.1282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0966</v>
+        <v>0.325</v>
       </c>
       <c r="B8" s="0">
-        <v>121.3182</v>
+        <v>131.4456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1159</v>
+        <v>0.2759</v>
       </c>
       <c r="B9" s="0">
-        <v>120.8638</v>
+        <v>128.763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1345</v>
+        <v>0.2759</v>
       </c>
       <c r="B10" s="0">
-        <v>125.0264</v>
+        <v>128.763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1535</v>
+        <v>0.2489</v>
       </c>
       <c r="B11" s="0">
-        <v>125.6807</v>
+        <v>131.4456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1725</v>
+        <v>0.2489</v>
       </c>
       <c r="B12" s="0">
-        <v>125.8989</v>
+        <v>131.4456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1915</v>
+        <v>0.2209</v>
       </c>
       <c r="B13" s="0">
-        <v>126.7714</v>
+        <v>128.763</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2105</v>
+        <v>0.1958</v>
       </c>
       <c r="B14" s="0">
-        <v>126.7714</v>
+        <v>128.763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2294</v>
+        <v>0.1688</v>
       </c>
       <c r="B15" s="0">
-        <v>129.3889</v>
+        <v>126.0805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2484</v>
+        <v>0.1447</v>
       </c>
       <c r="B16" s="0">
-        <v>128.7345</v>
+        <v>120.7154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2674</v>
+        <v>0.1206</v>
       </c>
       <c r="B17" s="0">
-        <v>129.1707</v>
+        <v>126.0805</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2864</v>
+        <v>0.0936</v>
       </c>
       <c r="B18" s="0">
-        <v>129.2829</v>
+        <v>123.3979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3053</v>
+        <v>0.0724</v>
       </c>
       <c r="B19" s="0">
-        <v>128.6763</v>
+        <v>123.3979</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3243</v>
+        <v>0.0483</v>
       </c>
       <c r="B20" s="0">
-        <v>130.4795</v>
+        <v>123.3979</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3433</v>
+        <v>0.0338</v>
       </c>
       <c r="B21" s="0">
-        <v>131.7155</v>
+        <v>120.7154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3623</v>
+        <v>0.0232</v>
       </c>
       <c r="B22" s="0">
-        <v>131.4974</v>
+        <v>109.9851</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3812</v>
+        <v>0.0097</v>
       </c>
       <c r="B23" s="0">
-        <v>132.4426</v>
+        <v>101.9374</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4002</v>
+        <v>0</v>
       </c>
       <c r="B24" s="0">
-        <v>135.3509</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4192</v>
-      </c>
-      <c r="B25" s="0">
-        <v>133.097</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.4382</v>
-      </c>
-      <c r="B26" s="0">
-        <v>132.0936</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.4571</v>
-      </c>
-      <c r="B27" s="0">
-        <v>132.8062</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.4761</v>
-      </c>
-      <c r="B28" s="0">
-        <v>133.7514</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.4951</v>
-      </c>
-      <c r="B29" s="0">
-        <v>133.5332</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5141</v>
-      </c>
-      <c r="B30" s="0">
-        <v>133.8968</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.533</v>
-      </c>
-      <c r="B31" s="0">
-        <v>133.097</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.552</v>
-      </c>
-      <c r="B32" s="0">
-        <v>132.9516</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.571</v>
-      </c>
-      <c r="B33" s="0">
-        <v>132.8789</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.59</v>
-      </c>
-      <c r="B34" s="0">
-        <v>134.6966</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6089</v>
-      </c>
-      <c r="B35" s="0">
-        <v>134.9147</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6279</v>
-      </c>
-      <c r="B36" s="0">
-        <v>135.0601</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6469</v>
-      </c>
-      <c r="B37" s="0">
-        <v>137.0232</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6659</v>
-      </c>
-      <c r="B38" s="0">
-        <v>135.4964</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6848</v>
-      </c>
-      <c r="B39" s="0">
-        <v>135.7145</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7038</v>
-      </c>
-      <c r="B40" s="0">
-        <v>136.3689</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7228</v>
-      </c>
-      <c r="B41" s="0">
-        <v>135.0601</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7418</v>
-      </c>
-      <c r="B42" s="0">
-        <v>138.5293</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7607</v>
-      </c>
-      <c r="B43" s="0">
-        <v>137.3141</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7797</v>
-      </c>
-      <c r="B44" s="0">
-        <v>135.0601</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7987</v>
-      </c>
-      <c r="B45" s="0">
-        <v>137.6049</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8177</v>
-      </c>
-      <c r="B46" s="0">
-        <v>135.4964</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8366</v>
-      </c>
-      <c r="B47" s="0">
-        <v>138.1139</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8556</v>
-      </c>
-      <c r="B48" s="0">
-        <v>138.8409</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8746</v>
-      </c>
-      <c r="B49" s="0">
-        <v>138.5501</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8936</v>
-      </c>
-      <c r="B50" s="0">
-        <v>138.7537</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9125</v>
-      </c>
-      <c r="B51" s="0">
-        <v>139.6844</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9315</v>
-      </c>
-      <c r="B52" s="0">
-        <v>139.8589</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9505</v>
-      </c>
-      <c r="B53" s="0">
-        <v>140.3678</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9695</v>
-      </c>
-      <c r="B54" s="0">
-        <v>140.077</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9876</v>
-      </c>
-      <c r="B55" s="0">
-        <v>138.6592</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>85.842</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4465,7 +4217,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4486,397 +4238,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9903</v>
       </c>
       <c r="B3" s="0">
-        <v>574.9259</v>
+        <v>1644.4113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.8475</v>
       </c>
       <c r="B4" s="0">
-        <v>636.4448</v>
+        <v>1617.5857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.8475</v>
       </c>
       <c r="B5" s="0">
-        <v>674.7414</v>
+        <v>1617.5857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.8003</v>
       </c>
       <c r="B6" s="0">
-        <v>709.8231</v>
+        <v>1606.8554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.7077</v>
       </c>
       <c r="B7" s="0">
-        <v>745.6427</v>
+        <v>1593.4426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.6498</v>
       </c>
       <c r="B8" s="0">
-        <v>782.2819</v>
+        <v>1582.7124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.6045</v>
       </c>
       <c r="B9" s="0">
-        <v>822.1241</v>
+        <v>1566.617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.5534</v>
       </c>
       <c r="B10" s="0">
-        <v>863.6454</v>
+        <v>1545.1565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.5003</v>
       </c>
       <c r="B11" s="0">
-        <v>902.8753</v>
+        <v>1512.9657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.4733</v>
       </c>
       <c r="B12" s="0">
-        <v>942.473</v>
+        <v>1486.1401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.4473</v>
       </c>
       <c r="B13" s="0">
-        <v>985.7131</v>
+        <v>1448.5842</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.4212</v>
       </c>
       <c r="B14" s="0">
-        <v>1028.996</v>
+        <v>1402.9806</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.398</v>
       </c>
       <c r="B15" s="0">
-        <v>1066.9891</v>
+        <v>1365.4247</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="B16" s="0">
-        <v>1103.3933</v>
+        <v>1314.456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3266</v>
       </c>
       <c r="B17" s="0">
-        <v>1149.0238</v>
+        <v>1217.8838</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.2745</v>
       </c>
       <c r="B18" s="0">
-        <v>1199.4603</v>
+        <v>1099.851</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.2484</v>
       </c>
       <c r="B19" s="0">
-        <v>1246.1933</v>
+        <v>1038.152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2233</v>
       </c>
       <c r="B20" s="0">
-        <v>1289.545</v>
+        <v>989.8659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.1953</v>
       </c>
       <c r="B21" s="0">
-        <v>1331.6282</v>
+        <v>933.532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.1721</v>
       </c>
       <c r="B22" s="0">
-        <v>1371.2955</v>
+        <v>887.9285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.148</v>
       </c>
       <c r="B23" s="0">
-        <v>1402.8647</v>
+        <v>836.9598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.1239</v>
       </c>
       <c r="B24" s="0">
-        <v>1433.5388</v>
+        <v>794.0387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.0997</v>
       </c>
       <c r="B25" s="0">
-        <v>1464.7209</v>
+        <v>748.4352</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.0746</v>
       </c>
       <c r="B26" s="0">
-        <v>1489.713</v>
+        <v>694.7839</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.0457</v>
       </c>
       <c r="B27" s="0">
-        <v>1510.1261</v>
+        <v>649.1803</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0331</v>
       </c>
       <c r="B28" s="0">
-        <v>1528.1184</v>
+        <v>625.0373</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0244</v>
       </c>
       <c r="B29" s="0">
-        <v>1541.0613</v>
+        <v>598.2116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0157</v>
       </c>
       <c r="B30" s="0">
-        <v>1554.4714</v>
+        <v>576.7511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0099</v>
       </c>
       <c r="B31" s="0">
-        <v>1567.0406</v>
+        <v>555.2906</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0041</v>
       </c>
       <c r="B32" s="0">
-        <v>1571.6898</v>
+        <v>512.3696</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.0041</v>
       </c>
       <c r="B33" s="0">
-        <v>1576.2362</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>1581.2184</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>1586.2345</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>1591.3355</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>1593.3314</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>1596.1627</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>1599.6831</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>1602.935</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>1605.9575</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>1608.1572</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>1611.3417</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>1615.4142</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>1619.0103</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>1621.688</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>1624.0209</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>1627.3588</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>1631.3739</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>1635.7007</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>1643.3576</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>490.9091</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4885,7 +4493,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4906,397 +4514,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9935</v>
       </c>
       <c r="B3" s="0">
-        <v>310.9481</v>
+        <v>388.9717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.953</v>
       </c>
       <c r="B4" s="0">
-        <v>338.2419</v>
+        <v>391.6542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9047</v>
       </c>
       <c r="B5" s="0">
-        <v>347.8183</v>
+        <v>391.6542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.8527</v>
       </c>
       <c r="B6" s="0">
-        <v>354.6967</v>
+        <v>388.9717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8083</v>
       </c>
       <c r="B7" s="0">
-        <v>358.8456</v>
+        <v>386.2891</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.7562</v>
       </c>
       <c r="B8" s="0">
-        <v>363.1104</v>
+        <v>388.9717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.7032</v>
       </c>
       <c r="B9" s="0">
-        <v>365.5718</v>
+        <v>386.2891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.6521</v>
       </c>
       <c r="B10" s="0">
-        <v>366.9659</v>
+        <v>388.9717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.6019</v>
       </c>
       <c r="B11" s="0">
-        <v>368.0876</v>
+        <v>383.6066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.5508</v>
       </c>
       <c r="B12" s="0">
-        <v>369.877</v>
+        <v>386.2891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.4775</v>
       </c>
       <c r="B13" s="0">
-        <v>371.8382</v>
+        <v>386.2891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.4245</v>
       </c>
       <c r="B14" s="0">
-        <v>373.0366</v>
+        <v>380.924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3782</v>
       </c>
       <c r="B15" s="0">
-        <v>374.1728</v>
+        <v>383.6066</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3271</v>
       </c>
       <c r="B16" s="0">
-        <v>373.8667</v>
+        <v>375.5589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.2731</v>
       </c>
       <c r="B17" s="0">
-        <v>375.8716</v>
+        <v>375.5589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.249</v>
       </c>
       <c r="B18" s="0">
-        <v>376.9722</v>
+        <v>372.8763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.2258</v>
       </c>
       <c r="B19" s="0">
-        <v>378.9109</v>
+        <v>370.1937</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.1969</v>
       </c>
       <c r="B20" s="0">
-        <v>379.6915</v>
+        <v>370.1937</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.1718</v>
       </c>
       <c r="B21" s="0">
-        <v>378.3129</v>
+        <v>367.5112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.1468</v>
       </c>
       <c r="B22" s="0">
-        <v>380.0725</v>
+        <v>364.8286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.1198</v>
       </c>
       <c r="B23" s="0">
-        <v>380.8427</v>
+        <v>362.1461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.0937</v>
       </c>
       <c r="B24" s="0">
-        <v>383.1415</v>
+        <v>362.1461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.0706</v>
       </c>
       <c r="B25" s="0">
-        <v>383.1928</v>
+        <v>354.0984</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.0436</v>
       </c>
       <c r="B26" s="0">
-        <v>381.7877</v>
+        <v>346.0507</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.0301</v>
       </c>
       <c r="B27" s="0">
-        <v>385.0025</v>
+        <v>338.003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0195</v>
       </c>
       <c r="B28" s="0">
-        <v>385.56</v>
+        <v>324.5902</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0088</v>
       </c>
       <c r="B29" s="0">
-        <v>385.5974</v>
+        <v>305.8122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.005</v>
       </c>
       <c r="B30" s="0">
-        <v>384.7912</v>
+        <v>287.0343</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0001</v>
       </c>
       <c r="B31" s="0">
-        <v>383.7523</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>385.8394</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>386.698</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>389.572</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>388.6685</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>387.2725</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>390.1256</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>389.9165</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>390.7806</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>389.3527</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>387.5312</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>388.8533</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>388.8691</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>389.9565</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>390.0412</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>389.3781</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>391.0799</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>391.7533</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>391.9553</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>391.199</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>390.4734</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>262.8912</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5305,7 +4753,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5326,301 +4774,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0075</v>
+        <v>0.9891</v>
       </c>
       <c r="B3" s="0">
-        <v>605.2887</v>
+        <v>1191.0581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0302</v>
+        <v>0.9486</v>
       </c>
       <c r="B4" s="0">
-        <v>679.8897</v>
+        <v>1180.3279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0529</v>
+        <v>0.9486</v>
       </c>
       <c r="B5" s="0">
-        <v>756.8982</v>
+        <v>1180.3279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0771</v>
+        <v>0.8974</v>
       </c>
       <c r="B6" s="0">
-        <v>827.7298</v>
+        <v>1177.6453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1048</v>
+        <v>0.8492</v>
       </c>
       <c r="B7" s="0">
-        <v>887.8641</v>
+        <v>1169.5976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1324</v>
+        <v>0.7991</v>
       </c>
       <c r="B8" s="0">
-        <v>934.7644</v>
+        <v>1166.9151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.7509</v>
       </c>
       <c r="B9" s="0">
-        <v>976.1911</v>
+        <v>1161.5499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1876</v>
+        <v>0.4722</v>
       </c>
       <c r="B10" s="0">
-        <v>1009.1825</v>
+        <v>1123.994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2153</v>
+        <v>0.422</v>
       </c>
       <c r="B11" s="0">
-        <v>1035.2757</v>
+        <v>1110.5812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2429</v>
+        <v>0.3709</v>
       </c>
       <c r="B12" s="0">
-        <v>1059.7693</v>
+        <v>1099.851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2705</v>
+        <v>0.3709</v>
       </c>
       <c r="B13" s="0">
-        <v>1065.058</v>
+        <v>1099.851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2981</v>
+        <v>0.3458</v>
       </c>
       <c r="B14" s="0">
-        <v>1077.3148</v>
+        <v>1097.1684</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3257</v>
+        <v>0.3207</v>
       </c>
       <c r="B15" s="0">
-        <v>1087.912</v>
+        <v>1089.1207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3533</v>
+        <v>0.2966</v>
       </c>
       <c r="B16" s="0">
-        <v>1095.56</v>
+        <v>1075.7079</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3809</v>
+        <v>0.2725</v>
       </c>
       <c r="B17" s="0">
-        <v>1102.7881</v>
+        <v>1064.9776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4085</v>
+        <v>0.2494</v>
       </c>
       <c r="B18" s="0">
-        <v>1107.1356</v>
+        <v>1059.6125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4361</v>
+        <v>0.2233</v>
       </c>
       <c r="B19" s="0">
-        <v>1111.9458</v>
+        <v>1040.8346</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4637</v>
+        <v>0.1953</v>
       </c>
       <c r="B20" s="0">
-        <v>1117.8792</v>
+        <v>1016.6915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4913</v>
+        <v>0.1751</v>
       </c>
       <c r="B21" s="0">
-        <v>1123.3628</v>
+        <v>995.231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5189</v>
+        <v>0.1481</v>
       </c>
       <c r="B22" s="0">
-        <v>1129.4212</v>
+        <v>960.3577</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5465</v>
+        <v>0.1201</v>
       </c>
       <c r="B23" s="0">
-        <v>1130.171</v>
+        <v>922.8018</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5741</v>
+        <v>0.0969</v>
       </c>
       <c r="B24" s="0">
-        <v>1138.1489</v>
+        <v>871.8331</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6017</v>
+        <v>0.0718</v>
       </c>
       <c r="B25" s="0">
-        <v>1142.5878</v>
+        <v>820.8644</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6293</v>
+        <v>0.0448</v>
       </c>
       <c r="B26" s="0">
-        <v>1146.9966</v>
+        <v>745.7526</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6569</v>
+        <v>0.039</v>
       </c>
       <c r="B27" s="0">
-        <v>1152.0953</v>
+        <v>724.2921</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6845</v>
+        <v>0.0303</v>
       </c>
       <c r="B28" s="0">
-        <v>1152.9351</v>
+        <v>702.8316</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7121</v>
+        <v>0.0235</v>
       </c>
       <c r="B29" s="0">
-        <v>1157.4339</v>
+        <v>676.006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7397</v>
+        <v>0.0167</v>
       </c>
       <c r="B30" s="0">
-        <v>1160.3432</v>
+        <v>649.1803</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7673</v>
+        <v>0.0129</v>
       </c>
       <c r="B31" s="0">
-        <v>1163.9922</v>
+        <v>619.6721</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7949</v>
+        <v>0.0071</v>
       </c>
       <c r="B32" s="0">
-        <v>1166.0417</v>
+        <v>590.1639</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8225</v>
+        <v>0.0032</v>
       </c>
       <c r="B33" s="0">
-        <v>1169.3408</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8501</v>
-      </c>
-      <c r="B34" s="0">
-        <v>1171.0104</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.8777</v>
-      </c>
-      <c r="B35" s="0">
-        <v>1175.3393</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9053</v>
-      </c>
-      <c r="B36" s="0">
-        <v>1180.8878</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9329</v>
-      </c>
-      <c r="B37" s="0">
-        <v>1179.988</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9605</v>
-      </c>
-      <c r="B38" s="0">
-        <v>1186.5863</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9882</v>
-      </c>
-      <c r="B39" s="0">
-        <v>1188.3859</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>557.9732</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 88 Study on the applicability/Data88_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 88 Study on the applicability/Data88_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 C6  0-1-0-1800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 CAC  0-1-0-1800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 PAC  0-1-0-1800 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 PPAC  0-1-0-1800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 C6  0&amp;1&amp;0&amp;1800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CAC  0&amp;1&amp;0&amp;1800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 PAC  0&amp;1&amp;0&amp;1800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 PPAC  0&amp;1&amp;0&amp;1800 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 C6  0-1-0-1800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 C6  0&amp;1&amp;0&amp;1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 C6  0-1-0-1800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 C6  0&amp;1&amp;0&amp;1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC  0-1-0-1800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CAC  0&amp;1&amp;0&amp;1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC  0-1-0-1800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CAC  0&amp;1&amp;0&amp;1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PAC  0-1-0-1800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 PAC  0&amp;1&amp;0&amp;1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PAC  0-1-0-1800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 PAC  0&amp;1&amp;0&amp;1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 PPAC  0-1-0-1800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 PPAC  0&amp;1&amp;0&amp;1800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 PPAC  0-1-0-1800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 PPAC  0&amp;1&amp;0&amp;1800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
